--- a/src/main/resources/xlsx/cet/cet_annual_objs.xlsx
+++ b/src/main/resources/xlsx/cet/cet_annual_objs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\cet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64464FD-46CC-4F02-AA7B-7BAEDED8486B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8FB630-86DF-414D-A147-0604B5DDBC52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{DA92F8D5-CC40-4384-8C04-09A81BAE777E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA92F8D5-CC40-4384-8C04-09A81BAE777E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,11 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>年度：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>培训对象类型：</t>
   </si>
@@ -61,8 +57,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行政
-级别</t>
+    <t>上级调训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各类培训完成学时数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党校专题
+培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党校日常
+培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_type年度培训学习情况统计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级党委培训</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -81,42 +106,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上级调训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级党校/党委培训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各类培训完成学时数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党校专题
-培训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党校日常
-培训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级单位
-培训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>school_type年度培训学习情况统计表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>year</t>
+    <t>线上/网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -211,13 +205,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,30 +264,33 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -269,7 +303,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -586,190 +626,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA742D34-94A5-4FBA-89F9-5BA5FC5F04E1}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.375" style="4" customWidth="1"/>
-    <col min="10" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="10" max="13" width="9" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:14" ht="45" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="14"/>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="16"/>
     </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15" t="s">
-        <v>7</v>
-      </c>
+    <row r="5" spans="1:14" ht="30" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
+    <row r="6" spans="1:14" ht="30" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="I3:I4"/>
+  <mergeCells count="14">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A6:N6"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="C2:L2"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/cet/cet_annual_objs.xlsx
+++ b/src/main/resources/xlsx/cet/cet_annual_objs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\cet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8FB630-86DF-414D-A147-0604B5DDBC52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F516F0-28E0-4ADC-8FE6-398AC18C1EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA92F8D5-CC40-4384-8C04-09A81BAE777E}"/>
   </bookViews>
@@ -285,6 +285,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -301,15 +310,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -629,7 +629,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -638,97 +638,100 @@
     <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="4" customWidth="1"/>
-    <col min="10" max="13" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="5.875" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="15"/>
+      <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="16" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="11" t="s">
         <v>15</v>
       </c>
@@ -750,7 +753,7 @@
       <c r="M4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="16"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
       <c r="A5" s="6"/>
@@ -769,20 +772,20 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/src/main/resources/xlsx/cet/cet_annual_objs.xlsx
+++ b/src/main/resources/xlsx/cet/cet_annual_objs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\cet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F516F0-28E0-4ADC-8FE6-398AC18C1EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE6836F-C21F-449A-AF63-73ED3B883589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA92F8D5-CC40-4384-8C04-09A81BAE777E}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>培训对象类型：</t>
   </si>
@@ -50,10 +50,6 @@
   </si>
   <si>
     <t>职务属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,11 +102,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>线上/网络</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行政级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下/网络</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -279,11 +275,11 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -310,6 +306,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -626,34 +628,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA742D34-94A5-4FBA-89F9-5BA5FC5F04E1}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="4.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.25" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" customHeight="1">
+    <row r="1" spans="1:15" ht="45" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -668,14 +671,15 @@
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -686,12 +690,13 @@
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
-      <c r="M2" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="M2" s="18"/>
       <c r="N2" s="18"/>
+      <c r="O2" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="21" customHeight="1">
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -705,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>5</v>
@@ -714,48 +719,48 @@
         <v>18</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="M3" s="19"/>
-      <c r="N3" s="19" t="s">
-        <v>6</v>
-      </c>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="40.5" customHeight="1">
+    <row r="4" spans="1:15" s="3" customFormat="1" ht="40.5" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="22"/>
+      <c r="L4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="19"/>
+      <c r="N4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1">
+    <row r="5" spans="1:15" ht="30" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -764,14 +769,15 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1">
+    <row r="6" spans="1:15" ht="30" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -786,23 +792,24 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A6:O6"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/cet/cet_annual_objs.xlsx
+++ b/src/main/resources/xlsx/cet/cet_annual_objs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\cet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE6836F-C21F-449A-AF63-73ED3B883589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA92F8D5-CC40-4384-8C04-09A81BAE777E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$3:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>培训对象类型：</t>
   </si>
@@ -46,10 +45,6 @@
   </si>
   <si>
     <t>时任单位及职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,10 +94,6 @@
   <si>
     <t>完成
 百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -113,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -627,11 +618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA742D34-94A5-4FBA-89F9-5BA5FC5F04E1}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -639,24 +630,22 @@
     <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.25" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" customHeight="1">
+    <row r="1" spans="1:13" ht="45" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -670,16 +659,14 @@
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -690,13 +677,11 @@
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="11" t="s">
-        <v>12</v>
+      <c r="M2" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="21" customHeight="1">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -709,58 +694,50 @@
       <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" ht="40.5" customHeight="1">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L4" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1">
+    <row r="5" spans="1:13" ht="30" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -768,16 +745,14 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1">
+    <row r="6" spans="1:13" ht="30" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -791,25 +766,21 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A6:O6"/>
+  <mergeCells count="12">
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="A6:M6"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
